--- a/datatables/excel/data.xlsx
+++ b/datatables/excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playwright_cucumber\datatables\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F21EE71-A143-42F8-966C-101301A48BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4034776C-1C1D-4ABF-B52A-D19A8C548360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>S.No</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Hello xxx, Are you sure you want to confirm?</t>
+  </si>
+  <si>
+    <t>coursePrice</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Web Table Handling_Get coursename based on price</t>
+  </si>
+  <si>
+    <t>Fixed Web Table Handling_Validate total price</t>
+  </si>
+  <si>
+    <t>Mouse Hover validation</t>
+  </si>
+  <si>
+    <t>Frame Validation</t>
   </si>
 </sst>
 </file>
@@ -138,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +165,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,24 +449,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
     <col min="4" max="4" width="22.81640625" customWidth="1"/>
     <col min="5" max="5" width="16.90625" customWidth="1"/>
     <col min="6" max="6" width="54.36328125" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +489,11 @@
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -482,8 +505,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -497,8 +521,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -512,8 +537,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -525,8 +551,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -538,8 +565,9 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -551,12 +579,13 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3"/>
@@ -570,6 +599,65 @@
       <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
